--- a/3ekonom/tables.xlsx
+++ b/3ekonom/tables.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A4:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,262 +421,323 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B1" t="n">
-        <v>929779.28</v>
-      </c>
-      <c r="C1" t="n">
-        <v>20688.91</v>
-      </c>
-      <c r="D1" t="n">
-        <v>950468.1900000001</v>
-      </c>
-      <c r="E1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1563717.34</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21900.34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1585617.68</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3950235.55</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43845.54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3994081.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.95</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>3733315.71</v>
       </c>
       <c r="B4" t="n">
-        <v>6443732.17</v>
+        <v>417.62</v>
       </c>
       <c r="C4" t="n">
-        <v>86434.79000000001</v>
+        <v>1569.28</v>
       </c>
       <c r="D4" t="n">
-        <v>6530166.96</v>
+        <v>333.27</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>16309172.13</v>
       </c>
       <c r="F4" t="n">
-        <v>21.23</v>
+        <v>2063.27</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7297.17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>335.11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>table 2_1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1119994.71</v>
+      </c>
+      <c r="B5" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>470.78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4892751.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>618.98</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2189.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.14</v>
+        <v>26573682.25</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2972.64</v>
       </c>
       <c r="C6" t="n">
-        <v>2302344</v>
+        <v>11170.11</v>
       </c>
       <c r="D6" t="n">
-        <v>1151172</v>
+        <v>2372.19</v>
       </c>
       <c r="E6" t="n">
-        <v>3453516</v>
+        <v>23461869.11</v>
       </c>
       <c r="F6" t="n">
-        <v>47965.5</v>
+        <v>2968.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10497.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>482.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.24</v>
+        <v>2426655.21</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>271.46</v>
       </c>
       <c r="C7" t="n">
-        <v>3953520</v>
+        <v>1020.03</v>
       </c>
       <c r="D7" t="n">
-        <v>1976760</v>
+        <v>216.62</v>
       </c>
       <c r="E7" t="n">
-        <v>5930280</v>
+        <v>10600961.88</v>
       </c>
       <c r="F7" t="n">
-        <v>49419</v>
+        <v>1341.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4743.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>217.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.61</v>
+        <v>33853647.88</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>3787.01</v>
       </c>
       <c r="C8" t="n">
-        <v>10038840</v>
+        <v>14230.2</v>
       </c>
       <c r="D8" t="n">
-        <v>5019420</v>
+        <v>3022.06</v>
       </c>
       <c r="E8" t="n">
-        <v>15058260</v>
+        <v>55264754.76</v>
       </c>
       <c r="F8" t="n">
-        <v>52285.62</v>
+        <v>6991.53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24726.96</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1135.56</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16294704</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8147352</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24442056</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50920.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
-          <t>table 2_2</t>
+          <t>table 6_0_0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>table 6_0_1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25124012.69</v>
+        <v>6278748.800000001</v>
       </c>
       <c r="B11" t="n">
-        <v>2810.48</v>
+        <v>702.37</v>
       </c>
       <c r="C11" t="n">
-        <v>8057.73</v>
+        <v>8496.280000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4506000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>570.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6223.76</v>
+      </c>
+      <c r="H11" t="n">
+        <v>335.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7537203.800000001</v>
+        <v>1883624.64</v>
       </c>
       <c r="B12" t="n">
-        <v>843.14</v>
+        <v>210.71</v>
       </c>
       <c r="C12" t="n">
-        <v>2417.32</v>
+        <v>2548.88</v>
+      </c>
+      <c r="D12" t="n">
+        <v>105.83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1351800</v>
+      </c>
+      <c r="F12" t="n">
+        <v>171.02</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1867.13</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61842708.86000001</v>
+        <v>35269026.62</v>
       </c>
       <c r="B13" t="n">
-        <v>6917.98</v>
+        <v>3945.34</v>
       </c>
       <c r="C13" t="n">
-        <v>19834.1</v>
+        <v>47725.34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1981.65</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31138064.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3939.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43008.38</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2315.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4666005.06</v>
+        <v>4081186.72</v>
       </c>
       <c r="B14" t="n">
-        <v>521.96</v>
+        <v>456.54</v>
       </c>
       <c r="C14" t="n">
-        <v>1496.47</v>
+        <v>5522.58</v>
+      </c>
+      <c r="D14" t="n">
+        <v>229.31</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2928900</v>
+      </c>
+      <c r="F14" t="n">
+        <v>370.53</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4045.44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>217.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99169930.41</v>
+        <v>47512586.78</v>
       </c>
       <c r="B15" t="n">
-        <v>11093.56</v>
+        <v>5314.95</v>
       </c>
       <c r="C15" t="n">
-        <v>31804.09</v>
+        <v>64293.08</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2669.57</v>
+      </c>
+      <c r="E15" t="n">
+        <v>39924764.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5050.87</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55144.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2969.23</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
-          <t>table 6_1</t>
+          <t>table 6_1_1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40316724.21</v>
+        <v>15861266</v>
       </c>
       <c r="B17" t="n">
-        <v>4510</v>
+        <v>1774.31</v>
       </c>
       <c r="C17" t="n">
-        <v>897.63</v>
+        <v>353.14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6449496.609999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>815.92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>335.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12095017.26</v>
+        <v>4758379.8</v>
       </c>
       <c r="B18" t="n">
-        <v>1353</v>
+        <v>532.29</v>
       </c>
       <c r="C18" t="n">
-        <v>269.29</v>
+        <v>105.94</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1934848.98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>244.78</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100.53</v>
       </c>
     </row>
     <row r="19">
@@ -689,6 +750,15 @@
       <c r="C19" t="n">
         <v>445.09</v>
       </c>
+      <c r="E19" t="n">
+        <v>17647638.97</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2232.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>916.97</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -700,33 +770,60 @@
       <c r="C20" t="n">
         <v>711.65</v>
       </c>
+      <c r="E20" t="n">
+        <v>28191615.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3566.51</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1464.83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10887345.13</v>
+        <v>10309822.9</v>
       </c>
       <c r="B21" t="n">
-        <v>1217.9</v>
+        <v>1153.3</v>
       </c>
       <c r="C21" t="n">
-        <v>242.4</v>
+        <v>229.54</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4192172.79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>530.35</v>
+      </c>
+      <c r="G21" t="n">
+        <v>217.82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>115253624.19</v>
+        <v>82884006.29000001</v>
       </c>
       <c r="B22" t="n">
-        <v>12892.75</v>
+        <v>9271.75</v>
       </c>
       <c r="C22" t="n">
-        <v>2566.06</v>
+        <v>1845.37</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58415772.59</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7390.16</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3035.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>table 6_2</t>
+          <t>table 6_2_0</t>
         </is>
       </c>
     </row>

--- a/3ekonom/tables.xlsx
+++ b/3ekonom/tables.xlsx
@@ -423,54 +423,54 @@
   <sheetData>
     <row r="4">
       <c r="A4" t="n">
-        <v>3733315.71</v>
+        <v>3791789.34</v>
       </c>
       <c r="B4" t="n">
-        <v>417.62</v>
+        <v>424.17</v>
       </c>
       <c r="C4" t="n">
-        <v>1569.28</v>
+        <v>1486.98</v>
       </c>
       <c r="D4" t="n">
-        <v>333.27</v>
+        <v>338.49</v>
       </c>
       <c r="E4" t="n">
-        <v>16309172.13</v>
+        <v>4453089.86</v>
       </c>
       <c r="F4" t="n">
-        <v>2063.27</v>
+        <v>563.36</v>
       </c>
       <c r="G4" t="n">
-        <v>7297.17</v>
+        <v>1898.97</v>
       </c>
       <c r="H4" t="n">
-        <v>335.11</v>
+        <v>331.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1119994.71</v>
+        <v>1137536.8</v>
       </c>
       <c r="B5" t="n">
-        <v>125.29</v>
+        <v>127.25</v>
       </c>
       <c r="C5" t="n">
-        <v>470.78</v>
+        <v>446.09</v>
       </c>
       <c r="D5" t="n">
-        <v>99.98</v>
+        <v>101.55</v>
       </c>
       <c r="E5" t="n">
-        <v>4892751.64</v>
+        <v>1335926.96</v>
       </c>
       <c r="F5" t="n">
-        <v>618.98</v>
+        <v>169.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2189.15</v>
+        <v>569.6900000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>100.53</v>
+        <v>99.34999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>2972.64</v>
       </c>
       <c r="C6" t="n">
-        <v>11170.11</v>
+        <v>10421.05</v>
       </c>
       <c r="D6" t="n">
         <v>2372.19</v>
@@ -493,126 +493,126 @@
         <v>2968.16</v>
       </c>
       <c r="G6" t="n">
-        <v>10497.48</v>
+        <v>10005.06</v>
       </c>
       <c r="H6" t="n">
-        <v>482.09</v>
+        <v>1744.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2426655.21</v>
+        <v>2464663.07</v>
       </c>
       <c r="B7" t="n">
-        <v>271.46</v>
+        <v>275.71</v>
       </c>
       <c r="C7" t="n">
-        <v>1020.03</v>
+        <v>966.53</v>
       </c>
       <c r="D7" t="n">
-        <v>216.62</v>
+        <v>220.02</v>
       </c>
       <c r="E7" t="n">
-        <v>10600961.88</v>
+        <v>2894508.41</v>
       </c>
       <c r="F7" t="n">
-        <v>1341.13</v>
+        <v>366.18</v>
       </c>
       <c r="G7" t="n">
-        <v>4743.16</v>
+        <v>1234.33</v>
       </c>
       <c r="H7" t="n">
-        <v>217.82</v>
+        <v>215.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33853647.88</v>
+        <v>33967671.46</v>
       </c>
       <c r="B8" t="n">
-        <v>3787.01</v>
+        <v>3799.76</v>
       </c>
       <c r="C8" t="n">
-        <v>14230.2</v>
+        <v>13320.66</v>
       </c>
       <c r="D8" t="n">
-        <v>3022.06</v>
+        <v>3032.24</v>
       </c>
       <c r="E8" t="n">
-        <v>55264754.76</v>
+        <v>32145394.34</v>
       </c>
       <c r="F8" t="n">
-        <v>6991.53</v>
+        <v>4066.71</v>
       </c>
       <c r="G8" t="n">
-        <v>24726.96</v>
+        <v>13708.06</v>
       </c>
       <c r="H8" t="n">
-        <v>1135.56</v>
+        <v>2390.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>table 6_0_0</t>
+          <t>ТО-1 после рек</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>table 6_0_1</t>
+          <t>ТО-1 до рек</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6278748.800000001</v>
+        <v>6318768.140000001</v>
       </c>
       <c r="B11" t="n">
-        <v>702.37</v>
+        <v>706.84</v>
       </c>
       <c r="C11" t="n">
-        <v>8496.280000000001</v>
+        <v>6194.87</v>
       </c>
       <c r="D11" t="n">
-        <v>352.78</v>
+        <v>355.03</v>
       </c>
       <c r="E11" t="n">
-        <v>4506000</v>
+        <v>6311627.84</v>
       </c>
       <c r="F11" t="n">
-        <v>570.05</v>
+        <v>798.48</v>
       </c>
       <c r="G11" t="n">
-        <v>6223.76</v>
+        <v>7147.94</v>
       </c>
       <c r="H11" t="n">
-        <v>335.11</v>
+        <v>344.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1883624.64</v>
+        <v>1895630.44</v>
       </c>
       <c r="B12" t="n">
-        <v>210.71</v>
+        <v>212.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2548.88</v>
+        <v>1858.46</v>
       </c>
       <c r="D12" t="n">
-        <v>105.83</v>
+        <v>106.51</v>
       </c>
       <c r="E12" t="n">
-        <v>1351800</v>
+        <v>1893488.35</v>
       </c>
       <c r="F12" t="n">
-        <v>171.02</v>
+        <v>239.54</v>
       </c>
       <c r="G12" t="n">
-        <v>1867.13</v>
+        <v>2144.38</v>
       </c>
       <c r="H12" t="n">
-        <v>100.53</v>
+        <v>103.21</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>3945.34</v>
       </c>
       <c r="C13" t="n">
-        <v>47725.34</v>
+        <v>34577.48</v>
       </c>
       <c r="D13" t="n">
         <v>1981.65</v>
@@ -635,109 +635,114 @@
         <v>3939.27</v>
       </c>
       <c r="G13" t="n">
-        <v>43008.38</v>
+        <v>35263.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2315.76</v>
+        <v>1697.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4081186.72</v>
+        <v>4107199.29</v>
       </c>
       <c r="B14" t="n">
-        <v>456.54</v>
+        <v>459.45</v>
       </c>
       <c r="C14" t="n">
-        <v>5522.58</v>
+        <v>4026.67</v>
       </c>
       <c r="D14" t="n">
-        <v>229.31</v>
+        <v>230.77</v>
       </c>
       <c r="E14" t="n">
-        <v>2928900</v>
+        <v>4102558.09</v>
       </c>
       <c r="F14" t="n">
-        <v>370.53</v>
+        <v>519.01</v>
       </c>
       <c r="G14" t="n">
-        <v>4045.44</v>
+        <v>4646.16</v>
       </c>
       <c r="H14" t="n">
-        <v>217.82</v>
+        <v>223.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>47512586.78</v>
+        <v>47590624.49</v>
       </c>
       <c r="B15" t="n">
-        <v>5314.95</v>
+        <v>5323.68</v>
       </c>
       <c r="C15" t="n">
-        <v>64293.08</v>
+        <v>46657.47</v>
       </c>
       <c r="D15" t="n">
-        <v>2669.57</v>
+        <v>2673.96</v>
       </c>
       <c r="E15" t="n">
-        <v>39924764.8</v>
+        <v>43445739.08</v>
       </c>
       <c r="F15" t="n">
-        <v>5050.87</v>
+        <v>5496.31</v>
       </c>
       <c r="G15" t="n">
-        <v>55144.7</v>
+        <v>49202.42</v>
       </c>
       <c r="H15" t="n">
-        <v>2969.23</v>
+        <v>2368.1</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ТО-2 после рек</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>table 6_1_1</t>
+          <t>ТО-2 до рек</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15861266</v>
+        <v>15754862.96</v>
       </c>
       <c r="B17" t="n">
-        <v>1774.31</v>
+        <v>1762.4</v>
       </c>
       <c r="C17" t="n">
-        <v>353.14</v>
+        <v>350.77</v>
       </c>
       <c r="E17" t="n">
-        <v>6449496.609999999</v>
+        <v>15857611.35</v>
       </c>
       <c r="F17" t="n">
-        <v>815.92</v>
+        <v>2006.14</v>
       </c>
       <c r="G17" t="n">
-        <v>335.11</v>
+        <v>339.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4758379.8</v>
+        <v>4726458.89</v>
       </c>
       <c r="B18" t="n">
-        <v>532.29</v>
+        <v>528.72</v>
       </c>
       <c r="C18" t="n">
-        <v>105.94</v>
+        <v>105.23</v>
       </c>
       <c r="E18" t="n">
-        <v>1934848.98</v>
+        <v>4757283.41</v>
       </c>
       <c r="F18" t="n">
-        <v>244.78</v>
+        <v>601.84</v>
       </c>
       <c r="G18" t="n">
-        <v>100.53</v>
+        <v>101.73</v>
       </c>
     </row>
     <row r="19">
@@ -757,73 +762,78 @@
         <v>2232.6</v>
       </c>
       <c r="G19" t="n">
-        <v>916.97</v>
+        <v>377.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31963381.23</v>
+        <v>30069062.24</v>
       </c>
       <c r="B20" t="n">
-        <v>3575.56</v>
+        <v>3363.65</v>
       </c>
       <c r="C20" t="n">
-        <v>711.65</v>
+        <v>669.47</v>
       </c>
       <c r="E20" t="n">
-        <v>28191615.24</v>
+        <v>26495385.08</v>
       </c>
       <c r="F20" t="n">
-        <v>3566.51</v>
+        <v>3351.92</v>
       </c>
       <c r="G20" t="n">
-        <v>1464.83</v>
+        <v>566.5599999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10309822.9</v>
+        <v>10240660.93</v>
       </c>
       <c r="B21" t="n">
-        <v>1153.3</v>
+        <v>1145.56</v>
       </c>
       <c r="C21" t="n">
-        <v>229.54</v>
+        <v>228</v>
       </c>
       <c r="E21" t="n">
-        <v>4192172.79</v>
+        <v>10307447.38</v>
       </c>
       <c r="F21" t="n">
-        <v>530.35</v>
+        <v>1303.99</v>
       </c>
       <c r="G21" t="n">
-        <v>217.82</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82884006.29000001</v>
+        <v>80782201.38</v>
       </c>
       <c r="B22" t="n">
-        <v>9271.75</v>
+        <v>9036.629999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1845.37</v>
+        <v>1798.57</v>
       </c>
       <c r="E22" t="n">
-        <v>58415772.59</v>
+        <v>75065366.19</v>
       </c>
       <c r="F22" t="n">
-        <v>7390.16</v>
+        <v>9496.5</v>
       </c>
       <c r="G22" t="n">
-        <v>3035.27</v>
+        <v>1605.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>table 6_2_0</t>
+          <t>ТР после рек</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ТР до рек</t>
         </is>
       </c>
     </row>
